--- a/first_table.xlsx
+++ b/first_table.xlsx
@@ -1269,61 +1269,61 @@
       <c r="D1" s="72" t="n"/>
       <c r="E1" s="42" t="inlineStr">
         <is>
-          <t>Борисов</t>
+          <t>Клецк</t>
         </is>
       </c>
       <c r="F1" s="72" t="n"/>
       <c r="G1" s="42" t="inlineStr">
         <is>
-          <t>Вилейка</t>
+          <t>Мядель</t>
         </is>
       </c>
       <c r="H1" s="72" t="n"/>
       <c r="I1" s="42" t="inlineStr">
         <is>
-          <t>Клецк</t>
+          <t>Несвиж</t>
         </is>
       </c>
       <c r="J1" s="72" t="n"/>
       <c r="K1" s="42" t="inlineStr">
         <is>
-          <t>Молодечно</t>
+          <t>Пуховичи</t>
         </is>
       </c>
       <c r="L1" s="72" t="n"/>
       <c r="M1" s="42" t="inlineStr">
         <is>
-          <t>Мядель</t>
+          <t>Солигорск</t>
         </is>
       </c>
       <c r="N1" s="72" t="n"/>
       <c r="O1" s="42" t="inlineStr">
         <is>
-          <t>Несвиж</t>
+          <t>Слуцк</t>
         </is>
       </c>
       <c r="P1" s="72" t="n"/>
       <c r="Q1" s="42" t="inlineStr">
         <is>
-          <t>Солигорск</t>
+          <t>Смолевичи</t>
         </is>
       </c>
       <c r="R1" s="72" t="n"/>
       <c r="S1" s="42" t="inlineStr">
         <is>
-          <t>Смолевичи</t>
+          <t>Старые дороги</t>
         </is>
       </c>
       <c r="T1" s="72" t="n"/>
       <c r="U1" s="42" t="inlineStr">
         <is>
-          <t>Старые Дороги</t>
+          <t>Столбцы</t>
         </is>
       </c>
       <c r="V1" s="72" t="n"/>
       <c r="W1" s="42" t="inlineStr">
         <is>
-          <t>Столбцы</t>
+          <t>Узда</t>
         </is>
       </c>
       <c r="X1" s="72" t="n"/>
@@ -1482,102 +1482,102 @@
       </c>
       <c r="E3" s="21" t="inlineStr">
         <is>
-          <t>139,481</t>
+          <t>11,462</t>
         </is>
       </c>
       <c r="F3" s="21" t="inlineStr">
         <is>
-          <t>34,61</t>
+          <t>15,659</t>
         </is>
       </c>
       <c r="G3" s="21" t="inlineStr">
         <is>
-          <t>27,167</t>
+          <t>13,332</t>
         </is>
       </c>
       <c r="H3" s="21" t="inlineStr">
         <is>
-          <t>20,695</t>
+          <t>12,423</t>
         </is>
       </c>
       <c r="I3" s="21" t="inlineStr">
         <is>
-          <t>11,462</t>
+          <t>19,482</t>
         </is>
       </c>
       <c r="J3" s="21" t="inlineStr">
         <is>
-          <t>15,659</t>
+          <t>20,003</t>
         </is>
       </c>
       <c r="K3" s="21" t="inlineStr">
         <is>
-          <t>97,404</t>
+          <t>29,096</t>
         </is>
       </c>
       <c r="L3" s="21" t="inlineStr">
         <is>
-          <t>34,355</t>
+          <t>39,905</t>
         </is>
       </c>
       <c r="M3" s="21" t="inlineStr">
         <is>
-          <t>13,332</t>
+          <t>111,435</t>
         </is>
       </c>
       <c r="N3" s="21" t="inlineStr">
         <is>
-          <t>12,423</t>
+          <t>19,076</t>
         </is>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>19,482</t>
+          <t>61,396</t>
         </is>
       </c>
       <c r="P3" s="21" t="inlineStr">
         <is>
-          <t>20,003</t>
+          <t>26,802</t>
         </is>
       </c>
       <c r="Q3" s="21" t="inlineStr">
         <is>
-          <t>111,435</t>
+          <t>21,014</t>
         </is>
       </c>
       <c r="R3" s="21" t="inlineStr">
         <is>
-          <t>19,076</t>
+          <t>31,276</t>
         </is>
       </c>
       <c r="S3" s="21" t="inlineStr">
         <is>
-          <t>21,014</t>
+          <t>11,198</t>
         </is>
       </c>
       <c r="T3" s="21" t="inlineStr">
         <is>
-          <t>31,276</t>
+          <t>8,993</t>
         </is>
       </c>
       <c r="U3" s="21" t="inlineStr">
         <is>
-          <t>11,198</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="V3" s="21" t="inlineStr">
         <is>
-          <t>8,993</t>
+          <t>21,054</t>
         </is>
       </c>
       <c r="W3" s="21" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>10,781</t>
         </is>
       </c>
       <c r="X3" s="21" t="inlineStr">
         <is>
-          <t>21,054</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="Y3" s="21" t="inlineStr">
@@ -1614,77 +1614,77 @@
       </c>
       <c r="E4" s="21" t="inlineStr">
         <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F4" s="21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H4" s="21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I4" s="21" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J4" s="21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K4" s="21" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L4" s="21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="21" t="inlineStr">
+        <is>
           <t>370</t>
         </is>
       </c>
-      <c r="F4" s="21" t="inlineStr">
+      <c r="N4" s="21" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="G4" s="21" t="inlineStr">
+      <c r="O4" s="21" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="P4" s="21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="Q4" s="21" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="H4" s="21" t="inlineStr">
+      <c r="R4" s="21" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="I4" s="21" t="inlineStr">
+      <c r="S4" s="21" t="inlineStr">
         <is>
           <t>255</t>
-        </is>
-      </c>
-      <c r="J4" s="21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K4" s="21" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="L4" s="21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M4" s="21" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="N4" s="21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O4" s="21" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="P4" s="21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="Q4" s="21" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="R4" s="21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="S4" s="21" t="inlineStr">
-        <is>
-          <t>290</t>
         </is>
       </c>
       <c r="T4" s="21" t="inlineStr">
@@ -1877,77 +1877,77 @@
       </c>
       <c r="E6" s="21" t="inlineStr">
         <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="F6" s="21" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="G6" s="21" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="J6" s="21" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="K6" s="21" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="L6" s="21" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="M6" s="21" t="inlineStr">
+        <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="F6" s="21" t="inlineStr">
+      <c r="N6" s="21" t="inlineStr">
         <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="G6" s="21" t="inlineStr">
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P6" s="21" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="Q6" s="21" t="inlineStr">
         <is>
           <t>0,6</t>
         </is>
       </c>
-      <c r="H6" s="21" t="inlineStr">
+      <c r="R6" s="21" t="inlineStr">
         <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="I6" s="21" t="inlineStr">
+      <c r="S6" s="21" t="inlineStr">
         <is>
           <t>0,7</t>
-        </is>
-      </c>
-      <c r="J6" s="21" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="K6" s="21" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="L6" s="21" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="M6" s="21" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="N6" s="21" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="O6" s="21" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="P6" s="21" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="Q6" s="21" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="R6" s="21" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="S6" s="21" t="inlineStr">
-        <is>
-          <t>0,6</t>
         </is>
       </c>
       <c r="T6" s="21" t="inlineStr">
@@ -2245,43 +2245,43 @@
       </c>
       <c r="D11" s="79" t="n"/>
       <c r="E11" s="80" t="n">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F11" s="79" t="n"/>
       <c r="G11" s="80" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H11" s="79" t="n"/>
       <c r="I11" s="80" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J11" s="79" t="n"/>
       <c r="K11" s="80" t="n">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="L11" s="79" t="n"/>
       <c r="M11" s="80" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="N11" s="79" t="n"/>
       <c r="O11" s="80" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="P11" s="79" t="n"/>
       <c r="Q11" s="80" t="n">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="R11" s="79" t="n"/>
       <c r="S11" s="80" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T11" s="79" t="n"/>
       <c r="U11" s="80" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="V11" s="79" t="n"/>
       <c r="W11" s="80" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="X11" s="79" t="n"/>
       <c r="Y11" s="80" t="n">
@@ -2560,43 +2560,43 @@
       </c>
       <c r="D15" s="77" t="n"/>
       <c r="E15" s="15" t="n">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="F15" s="77" t="n"/>
       <c r="G15" s="15" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H15" s="77" t="n"/>
       <c r="I15" s="15" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J15" s="77" t="n"/>
       <c r="K15" s="15" t="n">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="L15" s="77" t="n"/>
       <c r="M15" s="15" t="n">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="N15" s="77" t="n"/>
       <c r="O15" s="15" t="n">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="P15" s="77" t="n"/>
       <c r="Q15" s="15" t="n">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="R15" s="77" t="n"/>
       <c r="S15" s="15" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="T15" s="77" t="n"/>
       <c r="U15" s="15" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V15" s="77" t="n"/>
       <c r="W15" s="15" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="X15" s="77" t="n"/>
       <c r="Y15" s="15" t="n">

--- a/first_table.xlsx
+++ b/first_table.xlsx
@@ -1562,7 +1562,7 @@
       </c>
       <c r="U3" s="21" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>17,420</t>
         </is>
       </c>
       <c r="V3" s="21" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="X3" s="21" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>13,050</t>
         </is>
       </c>
       <c r="Y3" s="21" t="inlineStr">
@@ -1867,122 +1867,122 @@
       </c>
       <c r="C6" s="21" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="E6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="F6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="G6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="H6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="I6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="J6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="K6" s="21" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="L6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="M6" s="21" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="N6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="P6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="Q6" s="21" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="R6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="S6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="T6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="U6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="V6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="W6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="X6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="Y6" s="21" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="Z6" s="21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,120</t>
         </is>
       </c>
       <c r="AA6" s="25" t="n"/>

--- a/first_table.xlsx
+++ b/first_table.xlsx
@@ -828,55 +828,55 @@
       <c r="H1" s="38" t="n"/>
       <c r="I1" s="25" t="inlineStr">
         <is>
-          <t>Копыль</t>
+          <t>Крупки</t>
         </is>
       </c>
       <c r="J1" s="38" t="n"/>
       <c r="K1" s="25" t="inlineStr">
         <is>
-          <t>Клецк</t>
+          <t>Любань</t>
         </is>
       </c>
       <c r="L1" s="38" t="n"/>
       <c r="M1" s="25" t="inlineStr">
         <is>
-          <t>Крупки</t>
+          <t>Молодечно</t>
         </is>
       </c>
       <c r="N1" s="38" t="n"/>
       <c r="O1" s="25" t="inlineStr">
         <is>
-          <t>Логойск</t>
+          <t>Несвиж</t>
         </is>
       </c>
       <c r="P1" s="38" t="n"/>
       <c r="Q1" s="25" t="inlineStr">
         <is>
-          <t>Любань</t>
+          <t>Солигорск</t>
         </is>
       </c>
       <c r="R1" s="38" t="n"/>
       <c r="S1" s="25" t="inlineStr">
         <is>
-          <t>Молодечно</t>
+          <t>Старые Дороги</t>
         </is>
       </c>
       <c r="T1" s="38" t="n"/>
       <c r="U1" s="25" t="inlineStr">
         <is>
-          <t>Мядель</t>
+          <t>Столбцы</t>
         </is>
       </c>
       <c r="V1" s="38" t="n"/>
       <c r="W1" s="25" t="inlineStr">
         <is>
-          <t>Несвиж</t>
+          <t>Узда</t>
         </is>
       </c>
       <c r="X1" s="38" t="n"/>
       <c r="Y1" s="25" t="inlineStr">
         <is>
-          <t>Смолевичи</t>
+          <t>Червень</t>
         </is>
       </c>
       <c r="Z1" s="38" t="n"/>
@@ -1058,58 +1058,58 @@
         <v>23.003</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>10.367</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>17.69</v>
+        <v>12.06</v>
       </c>
       <c r="K3" s="13" t="n">
-        <v>11.462</v>
+        <v>11.654</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>15.659</v>
+        <v>15.641</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>8.539999999999999</v>
+        <v>91.063</v>
       </c>
       <c r="N3" s="13" t="n">
-        <v>12.06</v>
+        <v>34.355</v>
       </c>
       <c r="O3" s="13" t="n">
-        <v>15.336</v>
+        <v>15.732</v>
       </c>
       <c r="P3" s="13" t="n">
-        <v>17.373</v>
+        <v>20.003</v>
       </c>
       <c r="Q3" s="13" t="n">
-        <v>11.654</v>
+        <v>100.824</v>
       </c>
       <c r="R3" s="13" t="n">
-        <v>15.641</v>
+        <v>19.076</v>
       </c>
       <c r="S3" s="13" t="n">
-        <v>91.063</v>
+        <v>11.198</v>
       </c>
       <c r="T3" s="13" t="n">
-        <v>34.355</v>
+        <v>8.993</v>
       </c>
       <c r="U3" s="13" t="n">
-        <v>7.146</v>
+        <v>17.42</v>
       </c>
       <c r="V3" s="13" t="n">
-        <v>12.423</v>
+        <v>21.054</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>15.732</v>
+        <v>10.781</v>
       </c>
       <c r="X3" s="13" t="n">
-        <v>20.003</v>
+        <v>13.05</v>
       </c>
       <c r="Y3" s="13" t="n">
-        <v>19.844</v>
+        <v>10.734</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>31.276</v>
+        <v>16.866</v>
       </c>
       <c r="AA3" s="14" t="n"/>
       <c r="AB3" s="14" t="n"/>
@@ -1178,67 +1178,67 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K4" s="13" t="inlineStr">
+        <is>
           <t>255</t>
         </is>
       </c>
-      <c r="J4" s="13" t="inlineStr">
+      <c r="L4" s="13" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="K4" s="13" t="inlineStr">
+      <c r="M4" s="13" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="N4" s="13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="L4" s="13" t="inlineStr">
+      <c r="P4" s="13" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="M4" s="13" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="N4" s="13" t="inlineStr">
+      <c r="Q4" s="13" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="R4" s="13" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="O4" s="13" t="inlineStr">
+      <c r="S4" s="13" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="P4" s="13" t="inlineStr">
+      <c r="T4" s="13" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="Q4" s="13" t="inlineStr">
+      <c r="U4" s="13" t="inlineStr">
         <is>
           <t>255</t>
-        </is>
-      </c>
-      <c r="R4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="S4" s="13" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="T4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="U4" s="13" t="inlineStr">
-        <is>
-          <t>215</t>
         </is>
       </c>
       <c r="V4" s="13" t="inlineStr">
@@ -1443,7 +1443,7 @@
         <v>0.12</v>
       </c>
       <c r="M6" s="13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="13" t="n">
         <v>0.12</v>
@@ -1455,13 +1455,13 @@
         <v>0.12</v>
       </c>
       <c r="Q6" s="13" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="R6" s="13" t="n">
         <v>0.12</v>
       </c>
       <c r="S6" s="13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T6" s="13" t="n">
         <v>0.12</v>
@@ -1834,58 +1834,58 @@
         <v>7</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="34" t="n">
         <v>6</v>
       </c>
       <c r="M11" s="34" t="n">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="N11" s="34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O11" s="34" t="n">
         <v>28</v>
       </c>
       <c r="P11" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="34" t="n">
+        <v>115</v>
+      </c>
+      <c r="R11" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="S11" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="T11" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="V11" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="X11" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="Q11" s="34" t="n">
-        <v>23</v>
-      </c>
-      <c r="R11" s="34" t="n">
+      <c r="Y11" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="13" t="n">
         <v>6</v>
-      </c>
-      <c r="S11" s="34" t="n">
-        <v>113</v>
-      </c>
-      <c r="T11" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="U11" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="V11" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" s="34" t="n">
-        <v>28</v>
-      </c>
-      <c r="X11" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="34" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="12" ht="79.95" customHeight="1" s="1" thickBot="1">
@@ -2286,22 +2286,22 @@
         <v>9</v>
       </c>
       <c r="I15" s="29" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J15" s="29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" s="29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="29" t="n">
         <v>7</v>
       </c>
       <c r="M15" s="29" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N15" s="29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O15" s="29" t="n">
         <v>36</v>
@@ -2310,34 +2310,34 @@
         <v>8</v>
       </c>
       <c r="Q15" s="29" t="n">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="R15" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="T15" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" s="29" t="n">
+        <v>39</v>
+      </c>
+      <c r="V15" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="W15" s="29" t="n">
+        <v>27</v>
+      </c>
+      <c r="X15" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="S15" s="29" t="n">
-        <v>150</v>
-      </c>
-      <c r="T15" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="V15" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="W15" s="29" t="n">
-        <v>36</v>
-      </c>
-      <c r="X15" s="29" t="n">
-        <v>8</v>
-      </c>
       <c r="Y15" s="29" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Z15" s="19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="79.95" customHeight="1" s="1" thickBot="1">

--- a/first_table.xlsx
+++ b/first_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6570" yWindow="-14250" windowWidth="11115" windowHeight="11010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -124,19 +124,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -192,21 +179,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -253,6 +225,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -270,30 +255,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -331,67 +292,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -400,13 +373,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -418,34 +391,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -789,10 +750,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -802,225 +763,204 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.05" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="37" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>Наименование района</t>
         </is>
       </c>
-      <c r="B1" s="37" t="n"/>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="B1" s="29" t="n"/>
+      <c r="C1" s="21" t="inlineStr">
         <is>
           <t>Минск</t>
         </is>
       </c>
-      <c r="D1" s="38" t="n"/>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="D1" s="30" t="n"/>
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Воложин</t>
         </is>
       </c>
-      <c r="F1" s="38" t="n"/>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="F1" s="30" t="n"/>
+      <c r="G1" s="21" t="inlineStr">
         <is>
           <t>Дзержинск</t>
         </is>
       </c>
-      <c r="H1" s="38" t="n"/>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="H1" s="30" t="n"/>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t>Копыль</t>
+        </is>
+      </c>
+      <c r="J1" s="30" t="n"/>
+      <c r="K1" s="21" t="inlineStr">
+        <is>
+          <t>Клецк</t>
+        </is>
+      </c>
+      <c r="L1" s="30" t="n"/>
+      <c r="M1" s="21" t="inlineStr">
         <is>
           <t>Крупки</t>
         </is>
       </c>
-      <c r="J1" s="38" t="n"/>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="N1" s="30" t="n"/>
+      <c r="O1" s="21" t="inlineStr">
+        <is>
+          <t>Логойск</t>
+        </is>
+      </c>
+      <c r="P1" s="30" t="n"/>
+      <c r="Q1" s="21" t="inlineStr">
         <is>
           <t>Любань</t>
         </is>
       </c>
-      <c r="L1" s="38" t="n"/>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="R1" s="30" t="n"/>
+      <c r="S1" s="21" t="inlineStr">
         <is>
           <t>Молодечно</t>
         </is>
       </c>
-      <c r="N1" s="38" t="n"/>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="T1" s="30" t="n"/>
+      <c r="U1" s="21" t="inlineStr">
+        <is>
+          <t>Мядель</t>
+        </is>
+      </c>
+      <c r="V1" s="30" t="n"/>
+      <c r="W1" s="21" t="inlineStr">
         <is>
           <t>Несвиж</t>
         </is>
       </c>
-      <c r="P1" s="38" t="n"/>
-      <c r="Q1" s="25" t="inlineStr">
-        <is>
-          <t>Солигорск</t>
-        </is>
-      </c>
-      <c r="R1" s="38" t="n"/>
-      <c r="S1" s="25" t="inlineStr">
-        <is>
-          <t>Старые Дороги</t>
-        </is>
-      </c>
-      <c r="T1" s="38" t="n"/>
-      <c r="U1" s="25" t="inlineStr">
-        <is>
-          <t>Столбцы</t>
-        </is>
-      </c>
-      <c r="V1" s="38" t="n"/>
-      <c r="W1" s="25" t="inlineStr">
-        <is>
-          <t>Узда</t>
-        </is>
-      </c>
-      <c r="X1" s="38" t="n"/>
-      <c r="Y1" s="25" t="inlineStr">
-        <is>
-          <t>Червень</t>
-        </is>
-      </c>
-      <c r="Z1" s="38" t="n"/>
-      <c r="AA1" s="27" t="inlineStr"/>
-      <c r="AC1" s="14" t="n"/>
-      <c r="AD1" s="14" t="n"/>
-      <c r="AE1" s="14" t="n"/>
-      <c r="AF1" s="14" t="n"/>
-      <c r="AG1" s="14" t="n"/>
-      <c r="AH1" s="14" t="n"/>
-      <c r="AI1" s="14" t="n"/>
-      <c r="AJ1" s="14" t="n"/>
-      <c r="AK1" s="14" t="n"/>
-      <c r="AL1" s="14" t="n"/>
-      <c r="AM1" s="14" t="n"/>
-      <c r="AN1" s="14" t="n"/>
-      <c r="AO1" s="14" t="n"/>
-      <c r="AP1" s="14" t="n"/>
-      <c r="AQ1" s="14" t="n"/>
-      <c r="AR1" s="14" t="n"/>
-      <c r="AS1" s="14" t="n"/>
-      <c r="AT1" s="14" t="n"/>
-      <c r="AU1" s="14" t="n"/>
-      <c r="AV1" s="14" t="n"/>
+      <c r="X1" s="30" t="n"/>
+      <c r="Y1" s="21" t="inlineStr">
+        <is>
+          <t>Смолевичи</t>
+        </is>
+      </c>
+      <c r="Z1" s="30" t="n"/>
     </row>
     <row r="2" ht="40.05" customHeight="1" s="1" thickBot="1">
-      <c r="A2" s="39" t="n"/>
-      <c r="B2" s="39" t="n"/>
+      <c r="A2" s="31" t="n"/>
+      <c r="B2" s="31" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="K2" s="36" t="inlineStr">
+      <c r="K2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="L2" s="36" t="inlineStr">
+      <c r="L2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="M2" s="36" t="inlineStr">
+      <c r="M2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="N2" s="36" t="inlineStr">
+      <c r="N2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="O2" s="36" t="inlineStr">
+      <c r="O2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="P2" s="36" t="inlineStr">
+      <c r="P2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="Q2" s="36" t="inlineStr">
+      <c r="Q2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="R2" s="36" t="inlineStr">
+      <c r="R2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="S2" s="36" t="inlineStr">
+      <c r="S2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="T2" s="36" t="inlineStr">
+      <c r="T2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="U2" s="36" t="inlineStr">
+      <c r="U2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="V2" s="36" t="inlineStr">
+      <c r="V2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="W2" s="36" t="inlineStr">
+      <c r="W2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="X2" s="36" t="inlineStr">
+      <c r="X2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
       </c>
-      <c r="Y2" s="36" t="inlineStr">
+      <c r="Y2" s="28" t="inlineStr">
         <is>
           <t>гор</t>
         </is>
       </c>
-      <c r="Z2" s="36" t="inlineStr">
+      <c r="Z2" s="28" t="inlineStr">
         <is>
           <t>сел</t>
         </is>
@@ -1037,103 +977,80 @@
           <t>N</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>232.175</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>10.012</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="11" t="n">
         <v>20.393</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11" t="n">
         <v>29.739</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="11" t="n">
         <v>23.003</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="11" t="n">
+        <v>10.367</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>11.462</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>15.659</v>
+      </c>
+      <c r="M3" s="11" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="N3" s="11" t="n">
         <v>12.06</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="O3" s="11" t="n">
+        <v>15.336</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>17.373</v>
+      </c>
+      <c r="Q3" s="11" t="n">
         <v>11.654</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="R3" s="11" t="n">
         <v>15.641</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="S3" s="11" t="n">
         <v>91.063</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="T3" s="11" t="n">
         <v>34.355</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="U3" s="11" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>12.423</v>
+      </c>
+      <c r="W3" s="11" t="n">
         <v>15.732</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="X3" s="11" t="n">
         <v>20.003</v>
       </c>
-      <c r="Q3" s="13" t="n">
-        <v>100.824</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>19.076</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>11.198</v>
-      </c>
-      <c r="T3" s="13" t="n">
-        <v>8.993</v>
-      </c>
-      <c r="U3" s="13" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>21.054</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>10.781</v>
-      </c>
-      <c r="X3" s="13" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="Y3" s="13" t="n">
-        <v>10.734</v>
-      </c>
-      <c r="Z3" s="13" t="n">
-        <v>16.866</v>
-      </c>
-      <c r="AA3" s="14" t="n"/>
-      <c r="AB3" s="14" t="n"/>
-      <c r="AC3" s="14" t="n"/>
-      <c r="AD3" s="14" t="n"/>
-      <c r="AE3" s="14" t="n"/>
-      <c r="AF3" s="14" t="n"/>
-      <c r="AG3" s="14" t="n"/>
-      <c r="AH3" s="14" t="n"/>
-      <c r="AI3" s="14" t="n"/>
-      <c r="AJ3" s="14" t="n"/>
-      <c r="AK3" s="14" t="n"/>
-      <c r="AL3" s="14" t="n"/>
-      <c r="AM3" s="14" t="n"/>
-      <c r="AN3" s="14" t="n"/>
-      <c r="AO3" s="14" t="n"/>
-      <c r="AP3" s="14" t="n"/>
-      <c r="AQ3" s="14" t="n"/>
-      <c r="AR3" s="14" t="n"/>
-      <c r="AS3" s="14" t="n"/>
-      <c r="AT3" s="14" t="n"/>
-      <c r="AU3" s="14" t="n"/>
-      <c r="AV3" s="14" t="n"/>
-      <c r="AW3" s="14" t="n"/>
+      <c r="Y3" s="11" t="n">
+        <v>19.844</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>31.276</v>
+      </c>
     </row>
     <row r="4" ht="79.95" customHeight="1" s="1" thickBot="1">
       <c r="A4" s="7" t="inlineStr">
@@ -1146,149 +1063,126 @@
           <t>a</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="G4" s="13" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="I4" s="13" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L4" s="11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="11" t="inlineStr">
         <is>
           <t>215</t>
         </is>
       </c>
-      <c r="J4" s="13" t="inlineStr">
+      <c r="N4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="K4" s="13" t="inlineStr">
+      <c r="O4" s="11" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="L4" s="13" t="inlineStr">
+      <c r="P4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="M4" s="13" t="inlineStr">
+      <c r="Q4" s="11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N4" s="13" t="inlineStr">
+      <c r="T4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="O4" s="13" t="inlineStr">
+      <c r="U4" s="11" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="V4" s="11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="W4" s="11" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="P4" s="13" t="inlineStr">
+      <c r="X4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="Q4" s="13" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="R4" s="13" t="inlineStr">
+      <c r="Y4" s="11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="Z4" s="11" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="S4" s="13" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="T4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="U4" s="13" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="V4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="W4" s="13" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="X4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="Y4" s="13" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="Z4" s="13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AA4" s="15" t="n"/>
-      <c r="AB4" s="15" t="n"/>
-      <c r="AC4" s="15" t="n"/>
-      <c r="AD4" s="15" t="n"/>
-      <c r="AE4" s="15" t="n"/>
-      <c r="AF4" s="15" t="n"/>
-      <c r="AG4" s="15" t="n"/>
-      <c r="AH4" s="15" t="n"/>
-      <c r="AI4" s="15" t="n"/>
-      <c r="AJ4" s="15" t="n"/>
-      <c r="AK4" s="15" t="n"/>
-      <c r="AL4" s="15" t="n"/>
-      <c r="AM4" s="15" t="n"/>
-      <c r="AN4" s="15" t="n"/>
-      <c r="AO4" s="15" t="n"/>
-      <c r="AP4" s="15" t="n"/>
-      <c r="AQ4" s="15" t="n"/>
-      <c r="AR4" s="15" t="n"/>
-      <c r="AS4" s="15" t="n"/>
-      <c r="AT4" s="15" t="n"/>
-      <c r="AU4" s="15" t="n"/>
-      <c r="AV4" s="15" t="n"/>
-      <c r="AW4" s="15" t="n"/>
     </row>
     <row r="5" ht="79.95" customHeight="1" s="1" thickBot="1">
       <c r="A5" s="7" t="inlineStr">
@@ -1301,100 +1195,100 @@
           <t>Nаб</t>
         </is>
       </c>
-      <c r="C5" s="36" t="inlineStr">
+      <c r="C5" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="28">
         <f>ROUNDUP(D3*D4*0.83,0)</f>
         <v/>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="28">
         <f>ROUNDUP(E3*E4*0.92,0)</f>
         <v/>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="28">
         <f>ROUNDUP(F3*F4*0.83,0)</f>
         <v/>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="28">
         <f>ROUNDUP(G3*G4*0.92,0)</f>
         <v/>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="28">
         <f>ROUNDUP(H3*H4*0.83,0)</f>
         <v/>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="28">
         <f>ROUNDUP(I3*I4*0.92,0)</f>
         <v/>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="28">
         <f>ROUNDUP(J3*J4*0.83,0)</f>
         <v/>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="28">
         <f>ROUNDUP(K3*K4*0.92,0)</f>
         <v/>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="28">
         <f>ROUNDUP(L3*L4*0.83,0)</f>
         <v/>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="28">
         <f>ROUNDUP(M3*M4*0.92,0)</f>
         <v/>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="28">
         <f>ROUNDUP(N3*N4*0.83,0)</f>
         <v/>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="28">
         <f>ROUNDUP(O3*O4*0.92,0)</f>
         <v/>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="28">
         <f>ROUNDUP(P3*P4*0.83,0)</f>
         <v/>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="28">
         <f>ROUNDUP(Q3*Q4*0.92,0)</f>
         <v/>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="28">
         <f>ROUNDUP(R3*R4*0.83,0)</f>
         <v/>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="28">
         <f>ROUNDUP(S3*S4*0.92,0)</f>
         <v/>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="28">
         <f>ROUNDUP(T3*T4*0.83,0)</f>
         <v/>
       </c>
-      <c r="U5" s="36">
+      <c r="U5" s="28">
         <f>ROUNDUP(U3*U4*0.92,0)</f>
         <v/>
       </c>
-      <c r="V5" s="36">
+      <c r="V5" s="28">
         <f>ROUNDUP(V3*V4*0.83,0)</f>
         <v/>
       </c>
-      <c r="W5" s="36">
+      <c r="W5" s="28">
         <f>ROUNDUP(W3*W4*0.92,0)</f>
         <v/>
       </c>
-      <c r="X5" s="36">
+      <c r="X5" s="28">
         <f>ROUNDUP(X3*X4*0.83,0)</f>
         <v/>
       </c>
-      <c r="Y5" s="36">
+      <c r="Y5" s="28">
         <f>ROUNDUP(Y3*Y4*0.92,0)</f>
         <v/>
       </c>
-      <c r="Z5" s="36">
+      <c r="Z5" s="28">
         <f>ROUNDUP(Z3*Z4*0.83,0)</f>
         <v/>
       </c>
@@ -1410,103 +1304,80 @@
           <t>Cаб</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.6</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="T6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="U6" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="V6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R6" s="13" t="n">
+      <c r="W6" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="Y6" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="Z6" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="U6" s="13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V6" s="13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="W6" s="13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X6" s="13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y6" s="13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z6" s="13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AA6" s="15" t="n"/>
-      <c r="AB6" s="15" t="n"/>
-      <c r="AC6" s="15" t="n"/>
-      <c r="AD6" s="15" t="n"/>
-      <c r="AE6" s="15" t="n"/>
-      <c r="AF6" s="15" t="n"/>
-      <c r="AG6" s="15" t="n"/>
-      <c r="AH6" s="15" t="n"/>
-      <c r="AI6" s="15" t="n"/>
-      <c r="AJ6" s="15" t="n"/>
-      <c r="AK6" s="15" t="n"/>
-      <c r="AL6" s="15" t="n"/>
-      <c r="AM6" s="15" t="n"/>
-      <c r="AN6" s="15" t="n"/>
-      <c r="AO6" s="15" t="n"/>
-      <c r="AP6" s="15" t="n"/>
-      <c r="AQ6" s="15" t="n"/>
-      <c r="AR6" s="15" t="n"/>
-      <c r="AS6" s="15" t="n"/>
-      <c r="AT6" s="15" t="n"/>
-      <c r="AU6" s="15" t="n"/>
-      <c r="AV6" s="15" t="n"/>
-      <c r="AW6" s="15" t="n"/>
     </row>
     <row r="7" ht="79.95" customHeight="1" s="1" thickBot="1">
       <c r="A7" s="7" t="inlineStr">
@@ -1519,32 +1390,32 @@
           <t>tзсл</t>
         </is>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="11" t="n">
         <v>3.88</v>
       </c>
-      <c r="D7" s="40" t="n"/>
-      <c r="E7" s="40" t="n"/>
-      <c r="F7" s="40" t="n"/>
-      <c r="G7" s="40" t="n"/>
-      <c r="H7" s="40" t="n"/>
-      <c r="I7" s="40" t="n"/>
-      <c r="J7" s="40" t="n"/>
-      <c r="K7" s="40" t="n"/>
-      <c r="L7" s="40" t="n"/>
-      <c r="M7" s="40" t="n"/>
-      <c r="N7" s="40" t="n"/>
-      <c r="O7" s="40" t="n"/>
-      <c r="P7" s="40" t="n"/>
-      <c r="Q7" s="40" t="n"/>
-      <c r="R7" s="40" t="n"/>
-      <c r="S7" s="40" t="n"/>
-      <c r="T7" s="40" t="n"/>
-      <c r="U7" s="40" t="n"/>
-      <c r="V7" s="40" t="n"/>
-      <c r="W7" s="40" t="n"/>
-      <c r="X7" s="40" t="n"/>
-      <c r="Y7" s="40" t="n"/>
-      <c r="Z7" s="38" t="n"/>
+      <c r="D7" s="32" t="n"/>
+      <c r="E7" s="32" t="n"/>
+      <c r="F7" s="32" t="n"/>
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="32" t="n"/>
+      <c r="I7" s="32" t="n"/>
+      <c r="J7" s="32" t="n"/>
+      <c r="K7" s="32" t="n"/>
+      <c r="L7" s="32" t="n"/>
+      <c r="M7" s="32" t="n"/>
+      <c r="N7" s="32" t="n"/>
+      <c r="O7" s="32" t="n"/>
+      <c r="P7" s="32" t="n"/>
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="32" t="n"/>
+      <c r="S7" s="32" t="n"/>
+      <c r="T7" s="32" t="n"/>
+      <c r="U7" s="32" t="n"/>
+      <c r="V7" s="32" t="n"/>
+      <c r="W7" s="32" t="n"/>
+      <c r="X7" s="32" t="n"/>
+      <c r="Y7" s="32" t="n"/>
+      <c r="Z7" s="33" t="n"/>
     </row>
     <row r="8" ht="79.95" customHeight="1" s="1" thickBot="1">
       <c r="A8" s="7" t="inlineStr">
@@ -1557,32 +1428,32 @@
           <t>tслм</t>
         </is>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="11" t="n">
         <v>4.25</v>
       </c>
-      <c r="D8" s="40" t="n"/>
-      <c r="E8" s="40" t="n"/>
-      <c r="F8" s="40" t="n"/>
-      <c r="G8" s="40" t="n"/>
-      <c r="H8" s="40" t="n"/>
-      <c r="I8" s="40" t="n"/>
-      <c r="J8" s="40" t="n"/>
-      <c r="K8" s="40" t="n"/>
-      <c r="L8" s="40" t="n"/>
-      <c r="M8" s="40" t="n"/>
-      <c r="N8" s="40" t="n"/>
-      <c r="O8" s="40" t="n"/>
-      <c r="P8" s="40" t="n"/>
-      <c r="Q8" s="40" t="n"/>
-      <c r="R8" s="40" t="n"/>
-      <c r="S8" s="40" t="n"/>
-      <c r="T8" s="40" t="n"/>
-      <c r="U8" s="40" t="n"/>
-      <c r="V8" s="40" t="n"/>
-      <c r="W8" s="40" t="n"/>
-      <c r="X8" s="40" t="n"/>
-      <c r="Y8" s="40" t="n"/>
-      <c r="Z8" s="41" t="n"/>
+      <c r="D8" s="32" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="32" t="n"/>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="32" t="n"/>
+      <c r="I8" s="32" t="n"/>
+      <c r="J8" s="32" t="n"/>
+      <c r="K8" s="32" t="n"/>
+      <c r="L8" s="32" t="n"/>
+      <c r="M8" s="32" t="n"/>
+      <c r="N8" s="32" t="n"/>
+      <c r="O8" s="32" t="n"/>
+      <c r="P8" s="32" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="32" t="n"/>
+      <c r="S8" s="32" t="n"/>
+      <c r="T8" s="32" t="n"/>
+      <c r="U8" s="32" t="n"/>
+      <c r="V8" s="32" t="n"/>
+      <c r="W8" s="32" t="n"/>
+      <c r="X8" s="32" t="n"/>
+      <c r="Y8" s="32" t="n"/>
+      <c r="Z8" s="33" t="n"/>
     </row>
     <row r="9" ht="79.95" customHeight="1" s="1" thickBot="1">
       <c r="A9" s="7" t="inlineStr">
@@ -1590,105 +1461,105 @@
           <t>Исход. обмен телефонного трафика, разг./сутки</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>QИСХ</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="11">
         <f>ROUNDUP(D6*D5,0)</f>
         <v/>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="11">
         <f>ROUNDUP(E6*E5,0)</f>
         <v/>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="11">
         <f>ROUNDUP(F6*F5,0)</f>
         <v/>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="11">
         <f>ROUNDUP(G6*G5,0)</f>
         <v/>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="11">
         <f>ROUNDUP(H6*H5,0)</f>
         <v/>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="11">
         <f>ROUNDUP(I6*I5,0)</f>
         <v/>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="11">
         <f>ROUNDUP(J6*J5,0)</f>
         <v/>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="11">
         <f>ROUNDUP(K6*K5,0)</f>
         <v/>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="11">
         <f>ROUNDUP(L6*L5,0)</f>
         <v/>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="11">
         <f>ROUNDUP(M6*M5,0)</f>
         <v/>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="11">
         <f>ROUNDUP(N6*N5,0)</f>
         <v/>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="11">
         <f>ROUNDUP(O6*O5,0)</f>
         <v/>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="11">
         <f>ROUNDUP(P6*P5,0)</f>
         <v/>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="11">
         <f>ROUNDUP(Q6*Q5,0)</f>
         <v/>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="11">
         <f>ROUNDUP(R6*R5,0)</f>
         <v/>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="11">
         <f>ROUNDUP(S6*S5,0)</f>
         <v/>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="11">
         <f>ROUNDUP(T6*T5,0)</f>
         <v/>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="11">
         <f>ROUNDUP(U6*U5,0)</f>
         <v/>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="11">
         <f>ROUNDUP(V6*V5,0)</f>
         <v/>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="11">
         <f>ROUNDUP(W6*W5,0)</f>
         <v/>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="11">
         <f>ROUNDUP(X6*X5,0)</f>
         <v/>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="11">
         <f>ROUNDUP(Y6*Y5,0)</f>
         <v/>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="11">
         <f>ROUNDUP(Z6*Z5,0)</f>
         <v/>
       </c>
@@ -1699,105 +1570,105 @@
           <t>Исходящая нагрузка от аб-в, Эрл</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>YЗСЛ</t>
         </is>
       </c>
-      <c r="C10" s="34" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="11">
         <f>ROUNDUP((D9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="11">
         <f>ROUNDUP((E9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="11">
         <f>ROUNDUP((F9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="11">
         <f>ROUNDUP((G9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="11">
         <f>ROUNDUP((H9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="11">
         <f>ROUNDUP((I9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="11">
         <f>ROUNDUP((J9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="11">
         <f>ROUNDUP((K9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="11">
         <f>ROUNDUP((L9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="11">
         <f>ROUNDUP((M9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="11">
         <f>ROUNDUP((N9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="11">
         <f>ROUNDUP((O9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="11">
         <f>ROUNDUP((P9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="11">
         <f>ROUNDUP((Q9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="11">
         <f>ROUNDUP((R9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="11">
         <f>ROUNDUP((S9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="11">
         <f>ROUNDUP((T9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="11">
         <f>ROUNDUP((U9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="11">
         <f>ROUNDUP((V9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="11">
         <f>ROUNDUP((W9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="11">
         <f>ROUNDUP((X9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="11">
         <f>ROUNDUP((Y9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="11">
         <f>ROUNDUP((Z9*$C7*0.11)/60,2)</f>
         <v/>
       </c>
@@ -1808,202 +1679,202 @@
           <t>Количество ЗСЛ</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>VЗСЛ</t>
         </is>
       </c>
-      <c r="C11" s="34" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="34" t="n">
+      <c r="G11" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="H11" s="34" t="n">
+      <c r="H11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="34" t="n">
+      <c r="I11" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="J11" s="34" t="n">
+      <c r="N11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="34" t="n">
+      <c r="O11" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="L11" s="34" t="n">
+      <c r="R11" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="M11" s="34" t="n">
+      <c r="S11" s="11" t="n">
         <v>113</v>
       </c>
-      <c r="N11" s="34" t="n">
+      <c r="T11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" s="34" t="n">
+      <c r="U11" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="P11" s="34" t="n">
+      <c r="X11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="Q11" s="34" t="n">
-        <v>115</v>
-      </c>
-      <c r="R11" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="S11" s="34" t="n">
-        <v>22</v>
-      </c>
-      <c r="T11" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="34" t="n">
-        <v>31</v>
-      </c>
-      <c r="V11" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="W11" s="34" t="n">
-        <v>21</v>
-      </c>
-      <c r="X11" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="34" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>6</v>
+      <c r="Y11" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A12" s="19" t="inlineStr">
+      <c r="A12" s="25" t="inlineStr">
         <is>
           <t>Количество каналов Е12, необходимое для организации ЗСЛ</t>
         </is>
       </c>
-      <c r="B12" s="30" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>NE12</t>
         </is>
       </c>
-      <c r="C12" s="29" t="inlineStr">
+      <c r="C12" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <f>ROUNDUP(D11/31,0)</f>
         <v/>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <f>ROUNDUP(E11/31,0)</f>
         <v/>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="25">
         <f>ROUNDUP(F11/31,0)</f>
         <v/>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="25">
         <f>ROUNDUP(G11/31,0)</f>
         <v/>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="25">
         <f>ROUNDUP(H11/31,0)</f>
         <v/>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <f>ROUNDUP(I11/31,0)</f>
         <v/>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="25">
         <f>ROUNDUP(J11/31,0)</f>
         <v/>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="25">
         <f>ROUNDUP(K11/31,0)</f>
         <v/>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="25">
         <f>ROUNDUP(L11/31,0)</f>
         <v/>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="25">
         <f>ROUNDUP(M11/31,0)</f>
         <v/>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="25">
         <f>ROUNDUP(N11/31,0)</f>
         <v/>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="25">
         <f>ROUNDUP(O11/31,0)</f>
         <v/>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="25">
         <f>ROUNDUP(P11/31,0)</f>
         <v/>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="25">
         <f>ROUNDUP(Q11/31,0)</f>
         <v/>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="25">
         <f>ROUNDUP(R11/31,0)</f>
         <v/>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="25">
         <f>ROUNDUP(S11/31,0)</f>
         <v/>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="25">
         <f>ROUNDUP(T11/31,0)</f>
         <v/>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="25">
         <f>ROUNDUP(U11/31,0)</f>
         <v/>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="25">
         <f>ROUNDUP(V11/31,0)</f>
         <v/>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="25">
         <f>ROUNDUP(W11/31,0)</f>
         <v/>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="25">
         <f>ROUNDUP(X11/31,0)</f>
         <v/>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="25">
         <f>ROUNDUP(Y11/31,0)</f>
         <v/>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="25">
         <f>ROUNDUP(Z11/31,0)</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>Входящий обмен телефонного трафика, разг./сутки</t>
         </is>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <r>
             <t>Q</t>
@@ -2021,111 +1892,111 @@
           </r>
         </is>
       </c>
-      <c r="C13" s="29" t="inlineStr">
+      <c r="C13" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <f>ROUNDUP(D9/0.8,0)</f>
         <v/>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <f>ROUNDUP(E9/0.8,0)</f>
         <v/>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <f>ROUNDUP(F9/0.8,0)</f>
         <v/>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="25">
         <f>ROUNDUP(G9/0.8,0)</f>
         <v/>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="25">
         <f>ROUNDUP(H9/0.8,0)</f>
         <v/>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <f>ROUNDUP(I9/0.8,0)</f>
         <v/>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="25">
         <f>ROUNDUP(J9/0.8,0)</f>
         <v/>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="25">
         <f>ROUNDUP(K9/0.8,0)</f>
         <v/>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="25">
         <f>ROUNDUP(L9/0.8,0)</f>
         <v/>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="25">
         <f>ROUNDUP(M9/0.8,0)</f>
         <v/>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="25">
         <f>ROUNDUP(N9/0.8,0)</f>
         <v/>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="25">
         <f>ROUNDUP(O9/0.8,0)</f>
         <v/>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="25">
         <f>ROUNDUP(P9/0.8,0)</f>
         <v/>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="25">
         <f>ROUNDUP(Q9/0.8,0)</f>
         <v/>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="25">
         <f>ROUNDUP(R9/0.8,0)</f>
         <v/>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="25">
         <f>ROUNDUP(S9/0.8,0)</f>
         <v/>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="25">
         <f>ROUNDUP(T9/0.8,0)</f>
         <v/>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="25">
         <f>ROUNDUP(U9/0.8,0)</f>
         <v/>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="25">
         <f>ROUNDUP(V9/0.8,0)</f>
         <v/>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="25">
         <f>ROUNDUP(W9/0.8,0)</f>
         <v/>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="25">
         <f>ROUNDUP(X9/0.8,0)</f>
         <v/>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="25">
         <f>ROUNDUP(Y9/0.8,0)</f>
         <v/>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="25">
         <f>ROUNDUP(Z9/0.8,0)</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>Входящая нагрузка от абонентов, Эрл</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <r>
             <t>Y</t>
@@ -2143,111 +2014,111 @@
           </r>
         </is>
       </c>
-      <c r="C14" s="29" t="inlineStr">
+      <c r="C14" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <f>ROUNDUP((D13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <f>ROUNDUP((E13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <f>ROUNDUP((F13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="25">
         <f>ROUNDUP((G13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="25">
         <f>ROUNDUP((H13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <f>ROUNDUP((I13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="25">
         <f>ROUNDUP((J13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="25">
         <f>ROUNDUP((K13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="25">
         <f>ROUNDUP((L13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="25">
         <f>ROUNDUP((M13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="25">
         <f>ROUNDUP((N13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="25">
         <f>ROUNDUP((O13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="25">
         <f>ROUNDUP((P13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="25">
         <f>ROUNDUP((Q13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="25">
         <f>ROUNDUP((R13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="25">
         <f>ROUNDUP((S13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="25">
         <f>ROUNDUP((T13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="25">
         <f>ROUNDUP((U13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="25">
         <f>ROUNDUP((V13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="25">
         <f>ROUNDUP((W13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="25">
         <f>ROUNDUP((X13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="25">
         <f>ROUNDUP((Y13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14" s="25">
         <f>ROUNDUP((Z13*$C$8*0.11)/60,2)</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>Количество СЛМ</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <r>
             <t>N</t>
@@ -2265,442 +2136,442 @@
           </r>
         </is>
       </c>
-      <c r="C15" s="29" t="inlineStr">
+      <c r="C15" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="H15" s="29" t="n">
+      <c r="H15" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="I15" s="29" t="n">
+      <c r="I15" s="25" t="n">
+        <v>26</v>
+      </c>
+      <c r="J15" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="25" t="n">
+        <v>28</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="J15" s="29" t="n">
+      <c r="N15" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="29" t="n">
+      <c r="O15" s="25" t="n">
+        <v>36</v>
+      </c>
+      <c r="P15" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="L15" s="29" t="n">
+      <c r="R15" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="M15" s="29" t="n">
+      <c r="S15" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="N15" s="29" t="n">
+      <c r="T15" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="O15" s="29" t="n">
+      <c r="U15" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="V15" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" s="25" t="n">
         <v>36</v>
       </c>
-      <c r="P15" s="29" t="n">
+      <c r="X15" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" s="29" t="n">
-        <v>153</v>
-      </c>
-      <c r="R15" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="S15" s="29" t="n">
-        <v>28</v>
-      </c>
-      <c r="T15" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="U15" s="29" t="n">
-        <v>39</v>
-      </c>
-      <c r="V15" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="W15" s="29" t="n">
-        <v>27</v>
-      </c>
-      <c r="X15" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="29" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="19" t="n">
-        <v>7</v>
+      <c r="Y15" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>Количество каналов Е12, необходимое для организации СЛМ</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="17" t="inlineStr">
         <is>
           <t>NE12</t>
         </is>
       </c>
-      <c r="C16" s="29" t="inlineStr">
+      <c r="C16" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <f>ROUNDUP(D15/31,0)</f>
         <v/>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="25">
         <f>ROUNDUP(E15/31,0)</f>
         <v/>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="25">
         <f>ROUNDUP(F15/31,0)</f>
         <v/>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="25">
         <f>ROUNDUP(G15/31,0)</f>
         <v/>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="25">
         <f>ROUNDUP(H15/31,0)</f>
         <v/>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <f>ROUNDUP(I15/31,0)</f>
         <v/>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="25">
         <f>ROUNDUP(J15/31,0)</f>
         <v/>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="25">
         <f>ROUNDUP(K15/31,0)</f>
         <v/>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="25">
         <f>ROUNDUP(L15/31,0)</f>
         <v/>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="25">
         <f>ROUNDUP(M15/31,0)</f>
         <v/>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="25">
         <f>ROUNDUP(N15/31,0)</f>
         <v/>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="25">
         <f>ROUNDUP(O15/31,0)</f>
         <v/>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="25">
         <f>ROUNDUP(P15/31,0)</f>
         <v/>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="25">
         <f>ROUNDUP(Q15/31,0)</f>
         <v/>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="25">
         <f>ROUNDUP(R15/31,0)</f>
         <v/>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="25">
         <f>ROUNDUP(S15/31,0)</f>
         <v/>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="25">
         <f>ROUNDUP(T15/31,0)</f>
         <v/>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="25">
         <f>ROUNDUP(U15/31,0)</f>
         <v/>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="25">
         <f>ROUNDUP(V15/31,0)</f>
         <v/>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="25">
         <f>ROUNDUP(W15/31,0)</f>
         <v/>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="25">
         <f>ROUNDUP(X15/31,0)</f>
         <v/>
       </c>
-      <c r="Y16" s="29">
+      <c r="Y16" s="25">
         <f>ROUNDUP(Y15/31,0)</f>
         <v/>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="25">
         <f>ROUNDUP(Z15/31,0)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>Число каналов Е12 для аренды каналов</t>
         </is>
       </c>
-      <c r="B17" s="12" t="n"/>
-      <c r="C17" s="29" t="inlineStr">
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D17" s="29" t="inlineStr">
+      <c r="D17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="25">
         <f>ROUNDUP(E5*0.005,0)</f>
         <v/>
       </c>
-      <c r="F17" s="29" t="inlineStr">
+      <c r="F17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="25">
         <f>ROUNDUP(G5*0.005,0)</f>
         <v/>
       </c>
-      <c r="H17" s="29" t="inlineStr">
+      <c r="H17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <f>ROUNDUP(I5*0.005,0)</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="inlineStr">
+      <c r="J17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="25">
         <f>ROUNDUP(K5*0.005,0)</f>
         <v/>
       </c>
-      <c r="L17" s="29" t="inlineStr">
+      <c r="L17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="25">
         <f>ROUNDUP(M5*0.005,0)</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="inlineStr">
+      <c r="N17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="25">
         <f>ROUNDUP(O5*0.005,0)</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="inlineStr">
+      <c r="P17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="25">
         <f>ROUNDUP(Q5*0.005,0)</f>
         <v/>
       </c>
-      <c r="R17" s="29" t="inlineStr">
+      <c r="R17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="25">
         <f>ROUNDUP(S5*0.005,0)</f>
         <v/>
       </c>
-      <c r="T17" s="29" t="inlineStr">
+      <c r="T17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="25">
         <f>ROUNDUP(U5*0.005,0)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="inlineStr">
+      <c r="V17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="25">
         <f>ROUNDUP(W5*0.005,0)</f>
         <v/>
       </c>
-      <c r="X17" s="29" t="inlineStr">
+      <c r="X17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="25">
         <f>ROUNDUP(Y5*0.005,0)</f>
         <v/>
       </c>
-      <c r="Z17" s="19" t="inlineStr">
+      <c r="Z17" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="18" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>Общее количество каналов Е12</t>
         </is>
       </c>
-      <c r="B18" s="12" t="n"/>
-      <c r="C18" s="19">
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="25">
         <f>D16+D12</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="19">
+      <c r="D18" s="33" t="n"/>
+      <c r="E18" s="25">
         <f>E16+E17+E12+F16+F12</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="n"/>
-      <c r="G18" s="19">
+      <c r="F18" s="33" t="n"/>
+      <c r="G18" s="25">
         <f>G16+G17+G12+H16+H12</f>
         <v/>
       </c>
-      <c r="H18" s="41" t="n"/>
-      <c r="I18" s="19">
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="25">
         <f>I16+I17+I12+J16+J12</f>
         <v/>
       </c>
-      <c r="J18" s="41" t="n"/>
-      <c r="K18" s="19">
+      <c r="J18" s="33" t="n"/>
+      <c r="K18" s="25">
         <f>K16+K17+K12+L16+L12</f>
         <v/>
       </c>
-      <c r="L18" s="41" t="n"/>
-      <c r="M18" s="19">
+      <c r="L18" s="33" t="n"/>
+      <c r="M18" s="25">
         <f>M16+M17+M12+N16+N12</f>
         <v/>
       </c>
-      <c r="N18" s="41" t="n"/>
-      <c r="O18" s="19">
+      <c r="N18" s="33" t="n"/>
+      <c r="O18" s="25">
         <f>O16+O17+O12+P16+P12</f>
         <v/>
       </c>
-      <c r="P18" s="41" t="n"/>
-      <c r="Q18" s="19">
+      <c r="P18" s="33" t="n"/>
+      <c r="Q18" s="25">
         <f>Q16+Q17+Q12+R16+R12</f>
         <v/>
       </c>
-      <c r="R18" s="41" t="n"/>
-      <c r="S18" s="19">
+      <c r="R18" s="33" t="n"/>
+      <c r="S18" s="25">
         <f>S16+S17+S12+T16+T12</f>
         <v/>
       </c>
-      <c r="T18" s="41" t="n"/>
-      <c r="U18" s="19">
+      <c r="T18" s="33" t="n"/>
+      <c r="U18" s="25">
         <f>U16+U17+U12+V16+V12</f>
         <v/>
       </c>
-      <c r="V18" s="41" t="n"/>
-      <c r="W18" s="19">
+      <c r="V18" s="33" t="n"/>
+      <c r="W18" s="25">
         <f>W16+W17+W12+X16+X12</f>
         <v/>
       </c>
-      <c r="X18" s="41" t="n"/>
-      <c r="Y18" s="19">
+      <c r="X18" s="33" t="n"/>
+      <c r="Y18" s="25">
         <f>Y16+Y17+Y12+Z16+Z12</f>
         <v/>
       </c>
-      <c r="Z18" s="41" t="n"/>
+      <c r="Z18" s="33" t="n"/>
     </row>
     <row r="19" ht="79.95" customHeight="1" s="1" thickBot="1">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>Общее количество каналов Е12 с учётом запаса на перспективу</t>
         </is>
       </c>
-      <c r="B19" s="12" t="n"/>
-      <c r="C19" s="19">
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="25">
         <f>ROUNDUP((C18+D18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="19">
+      <c r="D19" s="33" t="n"/>
+      <c r="E19" s="25">
         <f>ROUNDUP((E18+F18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="F19" s="41" t="n"/>
-      <c r="G19" s="19">
+      <c r="F19" s="33" t="n"/>
+      <c r="G19" s="25">
         <f>ROUNDUP((G18+H18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="H19" s="41" t="n"/>
-      <c r="I19" s="19">
+      <c r="H19" s="33" t="n"/>
+      <c r="I19" s="25">
         <f>ROUNDUP((I18+J18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="J19" s="41" t="n"/>
-      <c r="K19" s="19">
+      <c r="J19" s="33" t="n"/>
+      <c r="K19" s="25">
         <f>ROUNDUP((K18+L18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="L19" s="41" t="n"/>
-      <c r="M19" s="19">
+      <c r="L19" s="33" t="n"/>
+      <c r="M19" s="25">
         <f>ROUNDUP((M18+N18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="N19" s="41" t="n"/>
-      <c r="O19" s="19">
+      <c r="N19" s="33" t="n"/>
+      <c r="O19" s="25">
         <f>ROUNDUP((O18+P18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="P19" s="41" t="n"/>
-      <c r="Q19" s="19">
+      <c r="P19" s="33" t="n"/>
+      <c r="Q19" s="25">
         <f>ROUNDUP((Q18+R18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="R19" s="41" t="n"/>
-      <c r="S19" s="19">
+      <c r="R19" s="33" t="n"/>
+      <c r="S19" s="25">
         <f>ROUNDUP((S18+T18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="T19" s="41" t="n"/>
-      <c r="U19" s="19">
+      <c r="T19" s="33" t="n"/>
+      <c r="U19" s="25">
         <f>ROUNDUP((U18+V18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="V19" s="41" t="n"/>
-      <c r="W19" s="19">
+      <c r="V19" s="33" t="n"/>
+      <c r="W19" s="25">
         <f>ROUNDUP((W18+X18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="X19" s="41" t="n"/>
-      <c r="Y19" s="19">
+      <c r="X19" s="33" t="n"/>
+      <c r="Y19" s="25">
         <f>ROUNDUP((Y18+Z18)*1.3,0)</f>
         <v/>
       </c>
-      <c r="Z19" s="41" t="n"/>
+      <c r="Z19" s="33" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="41">
